--- a/Plotting/Latex/filtered_data_sensitivity_import.xlsx
+++ b/Plotting/Latex/filtered_data_sensitivity_import.xlsx
@@ -653,7 +653,7 @@
         <v>2000</v>
       </c>
       <c r="I5" t="n">
-        <v>2500</v>
+        <v>2259</v>
       </c>
       <c r="J5" t="n">
         <v>750</v>
@@ -698,40 +698,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H6" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I6" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>105</v>
       </c>
       <c r="K6" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M6" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O6" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>114</v>
@@ -761,37 +761,37 @@
         <v>172</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="H7" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>172</v>
       </c>
       <c r="K7" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="N7" t="n">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="O7" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>338</v>
@@ -818,40 +818,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E8" t="n">
-        <v>902</v>
+        <v>1304</v>
       </c>
       <c r="F8" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>798</v>
+        <v>1083</v>
       </c>
       <c r="H8" t="n">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1066</v>
       </c>
       <c r="K8" t="n">
-        <v>1118</v>
+        <v>1092</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="M8" t="n">
-        <v>844</v>
+        <v>1066</v>
       </c>
       <c r="N8" t="n">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>845</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>752</v>
@@ -890,16 +890,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>751</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>139</v>
       </c>
       <c r="G11" t="n">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="J11" t="n">
         <v>157</v>
@@ -1025,13 +1025,13 @@
         <v>157</v>
       </c>
       <c r="M11" t="n">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="P11" t="n">
         <v>64</v>
